--- a/PA_Negatives_May-21-2019.xlsx
+++ b/PA_Negatives_May-21-2019.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="99">
   <si>
     <t>deficit</t>
   </si>
@@ -26,6 +26,9 @@
     <t>pick date</t>
   </si>
   <si>
+    <t>ship date</t>
+  </si>
+  <si>
     <t>A01</t>
   </si>
   <si>
@@ -92,15 +95,24 @@
     <t>A95</t>
   </si>
   <si>
+    <t>AA2</t>
+  </si>
+  <si>
     <t>AA4</t>
   </si>
   <si>
+    <t>AA5</t>
+  </si>
+  <si>
     <t>AA7</t>
   </si>
   <si>
     <t>AA8</t>
   </si>
   <si>
+    <t>AB7</t>
+  </si>
+  <si>
     <t>AC4</t>
   </si>
   <si>
@@ -110,6 +122,9 @@
     <t>AD5</t>
   </si>
   <si>
+    <t>AD6</t>
+  </si>
+  <si>
     <t>AE6</t>
   </si>
   <si>
@@ -122,6 +137,12 @@
     <t>AG9</t>
   </si>
   <si>
+    <t>AJ3</t>
+  </si>
+  <si>
+    <t>AJ4</t>
+  </si>
+  <si>
     <t>AK2</t>
   </si>
   <si>
@@ -173,6 +194,9 @@
     <t>AT7</t>
   </si>
   <si>
+    <t>AT9</t>
+  </si>
+  <si>
     <t>AU5</t>
   </si>
   <si>
@@ -209,6 +233,9 @@
     <t>P04-PAL</t>
   </si>
   <si>
+    <t>P57</t>
+  </si>
+  <si>
     <t>P101</t>
   </si>
   <si>
@@ -218,6 +245,9 @@
     <t>P203</t>
   </si>
   <si>
+    <t>P206</t>
+  </si>
+  <si>
     <t>P826</t>
   </si>
   <si>
@@ -228,6 +258,12 @@
   </si>
   <si>
     <t>PL556</t>
+  </si>
+  <si>
+    <t>PL855</t>
+  </si>
+  <si>
+    <t>PH203</t>
   </si>
   <si>
     <t>PH826</t>
@@ -641,7 +677,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D103"/>
+  <dimension ref="A1:E119"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -649,26 +685,31 @@
   <cols>
     <col min="2" max="2" width="0" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="15.7109375" customWidth="1"/>
-    <col min="8" max="8" width="0" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="15.7109375" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" customWidth="1"/>
+    <col min="9" max="9" width="0" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="15.7109375" customWidth="1"/>
+    <col min="12" max="12" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3" s="2">
         <v>0</v>
@@ -679,8 +720,11 @@
       <c r="D3" s="3">
         <v>43598</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" s="3">
+        <v>43597</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="2"/>
       <c r="B4" s="2">
         <v>1</v>
@@ -691,10 +735,13 @@
       <c r="D4" s="3">
         <v>43605</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" s="3">
+        <v>43605</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" s="2">
         <v>0</v>
@@ -705,8 +752,11 @@
       <c r="D5" s="3">
         <v>43612</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" s="3">
+        <v>43612</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="2"/>
       <c r="B6" s="2">
         <v>1</v>
@@ -717,8 +767,11 @@
       <c r="D6" s="3">
         <v>43613</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" s="3">
+        <v>43613</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="2"/>
       <c r="B7" s="2">
         <v>2</v>
@@ -729,8 +782,11 @@
       <c r="D7" s="3">
         <v>43613</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7" s="3">
+        <v>43613</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="2"/>
       <c r="B8" s="2">
         <v>3</v>
@@ -741,8 +797,11 @@
       <c r="D8" s="3">
         <v>43613</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8" s="3">
+        <v>43613</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" s="2"/>
       <c r="B9" s="2">
         <v>4</v>
@@ -753,10 +812,13 @@
       <c r="D9" s="3">
         <v>43616</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E9" s="3">
+        <v>43616</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B10" s="2">
         <v>0</v>
@@ -767,8 +829,11 @@
       <c r="D10" s="3">
         <v>43612</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="E10" s="3">
+        <v>43615</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" s="2"/>
       <c r="B11" s="2">
         <v>1</v>
@@ -779,70 +844,85 @@
       <c r="D11" s="3">
         <v>43620</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="E11" s="3">
+        <v>43622</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C12">
-        <v>504</v>
+        <v>1739</v>
       </c>
       <c r="D12" s="3">
-        <v>43609</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>43613</v>
+      </c>
+      <c r="E12" s="3">
+        <v>43614</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" s="2"/>
       <c r="B13" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C13">
-        <v>1008</v>
+        <v>504</v>
       </c>
       <c r="D13" s="3">
         <v>43609</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="E13" s="3">
+        <v>43614</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" s="2"/>
       <c r="B14" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C14">
-        <v>2142</v>
+        <v>1008</v>
       </c>
       <c r="D14" s="3">
-        <v>43612</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>43609</v>
+      </c>
+      <c r="E14" s="3">
+        <v>43614</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" s="2"/>
       <c r="B15" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C15">
-        <v>1739</v>
+        <v>2142</v>
       </c>
       <c r="D15" s="3">
-        <v>43613</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>43612</v>
+      </c>
+      <c r="E15" s="3">
+        <v>43615</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" s="2"/>
       <c r="B16" s="2">
         <v>4</v>
       </c>
       <c r="C16">
-        <v>504</v>
-      </c>
-      <c r="D16" s="3">
-        <v>43614</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>882</v>
+      </c>
+      <c r="E16" s="3">
+        <v>43619</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" s="2"/>
       <c r="B17" s="2">
         <v>5</v>
@@ -853,23 +933,29 @@
       <c r="D17" s="3">
         <v>43614</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17" s="3">
+        <v>43620</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" s="2"/>
       <c r="B18" s="2">
         <v>6</v>
       </c>
       <c r="C18">
-        <v>2772</v>
+        <v>504</v>
       </c>
       <c r="D18" s="3">
+        <v>43614</v>
+      </c>
+      <c r="E18" s="3">
         <v>43620</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:5">
       <c r="A19" s="2"/>
       <c r="B19" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C19">
         <v>2772</v>
@@ -877,11 +963,14 @@
       <c r="D19" s="3">
         <v>43620</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19" s="3">
+        <v>43621</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" s="2"/>
       <c r="B20" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20">
         <v>504</v>
@@ -889,20 +978,26 @@
       <c r="D20" s="3">
         <v>43621</v>
       </c>
-    </row>
-    <row r="21" spans="1:4">
+      <c r="E20" s="3">
+        <v>43621</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21" s="2"/>
       <c r="B21" s="2">
         <v>9</v>
       </c>
       <c r="C21">
-        <v>756</v>
+        <v>2772</v>
       </c>
       <c r="D21" s="3">
-        <v>43628</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>43620</v>
+      </c>
+      <c r="E21" s="3">
+        <v>43622</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22" s="2"/>
       <c r="B22" s="2">
         <v>10</v>
@@ -910,105 +1005,121 @@
       <c r="C22">
         <v>2772</v>
       </c>
-      <c r="D22" s="3">
+      <c r="E22" s="3">
+        <v>43628</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2">
+        <v>11</v>
+      </c>
+      <c r="C23">
+        <v>756</v>
+      </c>
+      <c r="D23" s="3">
+        <v>43628</v>
+      </c>
+      <c r="E23" s="3">
+        <v>43628</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2">
+        <v>12</v>
+      </c>
+      <c r="C24">
+        <v>2772</v>
+      </c>
+      <c r="D24" s="3">
         <v>43641</v>
       </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B23" s="2">
-        <v>0</v>
-      </c>
-      <c r="C23">
+      <c r="E24" s="3">
+        <v>43642</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25" s="2">
+        <v>0</v>
+      </c>
+      <c r="C25">
         <v>270</v>
-      </c>
-      <c r="D23" s="3">
-        <v>43609</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B24" s="2">
-        <v>0</v>
-      </c>
-      <c r="C24">
-        <v>376</v>
-      </c>
-      <c r="D24" s="3">
-        <v>43614</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B25" s="2">
-        <v>0</v>
-      </c>
-      <c r="C25">
-        <v>1583</v>
       </c>
       <c r="D25" s="3">
         <v>43609</v>
       </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="E25" s="3">
+        <v>43612</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="2"/>
       <c r="B26" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C26">
-        <v>236</v>
-      </c>
-      <c r="D26" s="3">
-        <v>43614</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>144</v>
+      </c>
+      <c r="E26" s="3">
+        <v>43621</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B27" s="2">
         <v>0</v>
       </c>
       <c r="C27">
-        <v>1442</v>
+        <v>376</v>
       </c>
       <c r="D27" s="3">
         <v>43614</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="2"/>
+      <c r="E27" s="3">
+        <v>43614</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="B28" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C28">
-        <v>3168</v>
+        <v>1583</v>
       </c>
       <c r="D28" s="3">
-        <v>43614</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="2"/>
+        <v>43609</v>
+      </c>
+      <c r="E28" s="3">
+        <v>43612</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="B29" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C29">
-        <v>1728</v>
+        <v>236</v>
       </c>
       <c r="D29" s="3">
         <v>43614</v>
       </c>
-    </row>
-    <row r="30" spans="1:4">
+      <c r="E29" s="3">
+        <v>43614</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
       <c r="A30" s="2" t="s">
         <v>11</v>
       </c>
@@ -1016,433 +1127,517 @@
         <v>0</v>
       </c>
       <c r="C30">
-        <v>5</v>
+        <v>1442</v>
       </c>
       <c r="D30" s="3">
-        <v>43600</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>43614</v>
+      </c>
+      <c r="E30" s="3">
+        <v>43614</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
       <c r="A31" s="2"/>
       <c r="B31" s="2">
         <v>1</v>
       </c>
       <c r="C31">
+        <v>3168</v>
+      </c>
+      <c r="D31" s="3">
+        <v>43614</v>
+      </c>
+      <c r="E31" s="3">
+        <v>43614</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="2"/>
+      <c r="B32" s="2">
+        <v>2</v>
+      </c>
+      <c r="C32">
+        <v>1728</v>
+      </c>
+      <c r="D32" s="3">
+        <v>43614</v>
+      </c>
+      <c r="E32" s="3">
+        <v>43614</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B33" s="2">
+        <v>0</v>
+      </c>
+      <c r="C33">
+        <v>5</v>
+      </c>
+      <c r="D33" s="3">
+        <v>43600</v>
+      </c>
+      <c r="E33" s="3">
+        <v>43602</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="2"/>
+      <c r="B34" s="2">
+        <v>1</v>
+      </c>
+      <c r="C34">
         <v>630</v>
-      </c>
-      <c r="D31" s="3">
-        <v>43602</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B32" s="2">
-        <v>0</v>
-      </c>
-      <c r="C32">
-        <v>432</v>
-      </c>
-      <c r="D32" s="3">
-        <v>43612</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B33" s="2">
-        <v>0</v>
-      </c>
-      <c r="C33">
-        <v>257</v>
-      </c>
-      <c r="D33" s="3">
-        <v>43612</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B34" s="2">
-        <v>0</v>
-      </c>
-      <c r="C34">
-        <v>1260</v>
       </c>
       <c r="D34" s="3">
         <v>43602</v>
       </c>
-    </row>
-    <row r="35" spans="1:4">
+      <c r="E34" s="3">
+        <v>43607</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
       <c r="A35" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B35" s="2">
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <v>432</v>
+      </c>
+      <c r="D35" s="3">
+        <v>43612</v>
+      </c>
+      <c r="E35" s="3">
+        <v>43615</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B36" s="2">
+        <v>0</v>
+      </c>
+      <c r="C36">
+        <v>257</v>
+      </c>
+      <c r="D36" s="3">
+        <v>43612</v>
+      </c>
+      <c r="E36" s="3">
+        <v>43615</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B35" s="2">
-        <v>0</v>
-      </c>
-      <c r="C35">
+      <c r="B37" s="2">
+        <v>0</v>
+      </c>
+      <c r="C37">
+        <v>1260</v>
+      </c>
+      <c r="D37" s="3">
+        <v>43602</v>
+      </c>
+      <c r="E37" s="3">
+        <v>43608</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B38" s="2">
+        <v>0</v>
+      </c>
+      <c r="C38">
         <v>141</v>
       </c>
-      <c r="D35" s="3">
-        <v>43605</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B36" s="2">
-        <v>0</v>
-      </c>
-      <c r="C36">
+      <c r="D38" s="3">
+        <v>43605</v>
+      </c>
+      <c r="E38" s="3">
+        <v>43605</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B39" s="2">
+        <v>0</v>
+      </c>
+      <c r="C39">
         <v>125</v>
       </c>
-      <c r="D36" s="3">
-        <v>43605</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B37" s="2">
-        <v>0</v>
-      </c>
-      <c r="C37">
+      <c r="D39" s="3">
+        <v>43605</v>
+      </c>
+      <c r="E39" s="3">
+        <v>43605</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B40" s="2">
+        <v>0</v>
+      </c>
+      <c r="C40">
         <v>1</v>
       </c>
-      <c r="D37" s="3">
-        <v>43605</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B38" s="2">
-        <v>0</v>
-      </c>
-      <c r="C38">
+      <c r="D40" s="3">
+        <v>43605</v>
+      </c>
+      <c r="E40" s="3">
+        <v>43608</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B41" s="2">
+        <v>0</v>
+      </c>
+      <c r="C41">
         <v>80</v>
       </c>
-      <c r="D38" s="3">
+      <c r="D41" s="3">
         <v>43607</v>
       </c>
-    </row>
-    <row r="39" spans="1:4">
-      <c r="A39" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B39" s="2">
-        <v>0</v>
-      </c>
-      <c r="C39">
+      <c r="E41" s="3">
+        <v>43608</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B42" s="2">
+        <v>0</v>
+      </c>
+      <c r="C42">
         <v>140</v>
-      </c>
-      <c r="D39" s="3">
-        <v>43609</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
-      <c r="A40" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B40" s="2">
-        <v>0</v>
-      </c>
-      <c r="C40">
-        <v>376</v>
-      </c>
-      <c r="D40" s="3">
-        <v>43609</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
-      <c r="A41" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B41" s="2">
-        <v>0</v>
-      </c>
-      <c r="C41">
-        <v>626</v>
-      </c>
-      <c r="D41" s="3">
-        <v>43609</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
-      <c r="A42" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B42" s="2">
-        <v>0</v>
-      </c>
-      <c r="C42">
-        <v>138</v>
       </c>
       <c r="D42" s="3">
         <v>43609</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42" s="3">
+        <v>43614</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
       <c r="A43" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B43" s="2">
         <v>0</v>
       </c>
       <c r="C43">
-        <v>31</v>
+        <v>376</v>
       </c>
       <c r="D43" s="3">
         <v>43609</v>
       </c>
-    </row>
-    <row r="44" spans="1:4">
+      <c r="E43" s="3">
+        <v>43614</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
       <c r="A44" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B44" s="2">
+        <v>0</v>
+      </c>
+      <c r="C44">
+        <v>626</v>
+      </c>
+      <c r="D44" s="3">
+        <v>43609</v>
+      </c>
+      <c r="E44" s="3">
+        <v>43614</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B45" s="2">
+        <v>0</v>
+      </c>
+      <c r="C45">
+        <v>138</v>
+      </c>
+      <c r="D45" s="3">
+        <v>43609</v>
+      </c>
+      <c r="E45" s="3">
+        <v>43609</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B44" s="2">
-        <v>0</v>
-      </c>
-      <c r="C44">
-        <v>126</v>
-      </c>
-      <c r="D44" s="3">
-        <v>43602</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
-      <c r="A45" s="2" t="s">
+      <c r="B46" s="2">
+        <v>0</v>
+      </c>
+      <c r="C46">
+        <v>31</v>
+      </c>
+      <c r="D46" s="3">
+        <v>43609</v>
+      </c>
+      <c r="E46" s="3">
+        <v>43609</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B45" s="2">
-        <v>0</v>
-      </c>
-      <c r="C45">
-        <v>125</v>
-      </c>
-      <c r="D45" s="3">
-        <v>43601</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
-      <c r="A46" s="2" t="s">
+      <c r="B47" s="2">
+        <v>0</v>
+      </c>
+      <c r="C47">
+        <v>140</v>
+      </c>
+      <c r="E47" s="3">
+        <v>43613</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B46" s="2">
-        <v>0</v>
-      </c>
-      <c r="C46">
-        <v>79</v>
-      </c>
-      <c r="D46" s="3">
-        <v>43607</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
-      <c r="A47" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B47" s="2">
-        <v>0</v>
-      </c>
-      <c r="C47">
-        <v>11</v>
-      </c>
-      <c r="D47" s="3">
-        <v>43608</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
-      <c r="A48" s="2"/>
       <c r="B48" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C48">
         <v>126</v>
       </c>
       <c r="D48" s="3">
+        <v>43602</v>
+      </c>
+      <c r="E48" s="3">
+        <v>43605</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B49" s="2">
+        <v>0</v>
+      </c>
+      <c r="C49">
+        <v>1</v>
+      </c>
+      <c r="E49" s="3">
+        <v>43613</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B50" s="2">
+        <v>0</v>
+      </c>
+      <c r="C50">
+        <v>125</v>
+      </c>
+      <c r="D50" s="3">
+        <v>43601</v>
+      </c>
+      <c r="E50" s="3">
+        <v>43606</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B51" s="2">
+        <v>0</v>
+      </c>
+      <c r="C51">
+        <v>79</v>
+      </c>
+      <c r="D51" s="3">
+        <v>43607</v>
+      </c>
+      <c r="E51" s="3">
+        <v>43613</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B52" s="2">
+        <v>0</v>
+      </c>
+      <c r="C52">
+        <v>144</v>
+      </c>
+      <c r="E52" s="3">
+        <v>43613</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B53" s="2">
+        <v>0</v>
+      </c>
+      <c r="C53">
+        <v>11</v>
+      </c>
+      <c r="D53" s="3">
         <v>43608</v>
       </c>
-    </row>
-    <row r="49" spans="1:4">
-      <c r="A49" s="2"/>
-      <c r="B49" s="2">
+      <c r="E53" s="3">
+        <v>43609</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="2"/>
+      <c r="B54" s="2">
+        <v>1</v>
+      </c>
+      <c r="C54">
+        <v>126</v>
+      </c>
+      <c r="D54" s="3">
+        <v>43608</v>
+      </c>
+      <c r="E54" s="3">
+        <v>43609</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="2"/>
+      <c r="B55" s="2">
         <v>2</v>
-      </c>
-      <c r="C49">
-        <v>126</v>
-      </c>
-      <c r="D49" s="3">
-        <v>43608</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
-      <c r="A50" s="2"/>
-      <c r="B50" s="2">
-        <v>3</v>
-      </c>
-      <c r="C50">
-        <v>126</v>
-      </c>
-      <c r="D50" s="3">
-        <v>43608</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
-      <c r="A51" s="2"/>
-      <c r="B51" s="2">
-        <v>4</v>
-      </c>
-      <c r="C51">
-        <v>126</v>
-      </c>
-      <c r="D51" s="3">
-        <v>43608</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
-      <c r="A52" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B52" s="2">
-        <v>0</v>
-      </c>
-      <c r="C52">
-        <v>51</v>
-      </c>
-      <c r="D52" s="3">
-        <v>43617</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
-      <c r="A53" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B53" s="2">
-        <v>0</v>
-      </c>
-      <c r="C53">
-        <v>643</v>
-      </c>
-      <c r="D53" s="3">
-        <v>43603</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
-      <c r="A54" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B54" s="2">
-        <v>0</v>
-      </c>
-      <c r="C54">
-        <v>4</v>
-      </c>
-      <c r="D54" s="3">
-        <v>43601</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
-      <c r="A55" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B55" s="2">
-        <v>0</v>
       </c>
       <c r="C55">
         <v>126</v>
       </c>
       <c r="D55" s="3">
+        <v>43608</v>
+      </c>
+      <c r="E55" s="3">
+        <v>43609</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="2"/>
+      <c r="B56" s="2">
+        <v>3</v>
+      </c>
+      <c r="C56">
+        <v>126</v>
+      </c>
+      <c r="D56" s="3">
+        <v>43608</v>
+      </c>
+      <c r="E56" s="3">
+        <v>43609</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" s="2"/>
+      <c r="B57" s="2">
+        <v>4</v>
+      </c>
+      <c r="C57">
+        <v>126</v>
+      </c>
+      <c r="D57" s="3">
+        <v>43608</v>
+      </c>
+      <c r="E57" s="3">
+        <v>43609</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B58" s="2">
+        <v>0</v>
+      </c>
+      <c r="C58">
+        <v>51</v>
+      </c>
+      <c r="D58" s="3">
+        <v>43617</v>
+      </c>
+      <c r="E58" s="3">
+        <v>43620</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B59" s="2">
+        <v>0</v>
+      </c>
+      <c r="C59">
+        <v>643</v>
+      </c>
+      <c r="D59" s="3">
         <v>43603</v>
       </c>
-    </row>
-    <row r="56" spans="1:4">
-      <c r="A56" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B56" s="2">
-        <v>0</v>
-      </c>
-      <c r="C56">
-        <v>229</v>
-      </c>
-      <c r="D56" s="3">
-        <v>43609</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
-      <c r="A57" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B57" s="2">
-        <v>0</v>
-      </c>
-      <c r="C57">
-        <v>1004</v>
-      </c>
-      <c r="D57" s="3">
-        <v>43603</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
-      <c r="A58" s="2" t="s">
+      <c r="E59" s="3">
+        <v>43605</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B58" s="2">
-        <v>0</v>
-      </c>
-      <c r="C58">
-        <v>244</v>
-      </c>
-      <c r="D58" s="3">
-        <v>43605</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
-      <c r="A59" s="2" t="s">
+      <c r="B60" s="2">
+        <v>0</v>
+      </c>
+      <c r="C60">
+        <v>330</v>
+      </c>
+      <c r="E60" s="3">
+        <v>43614</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B59" s="2">
-        <v>0</v>
-      </c>
-      <c r="C59">
-        <v>194</v>
-      </c>
-      <c r="D59" s="3">
-        <v>43602</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
-      <c r="A60" s="2"/>
-      <c r="B60" s="2">
-        <v>1</v>
-      </c>
-      <c r="C60">
-        <v>1008</v>
-      </c>
-      <c r="D60" s="3">
-        <v>43612</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
-      <c r="A61" s="2"/>
       <c r="B61" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C61">
-        <v>1008</v>
+        <v>4</v>
       </c>
       <c r="D61" s="3">
-        <v>43620</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>43601</v>
+      </c>
+      <c r="E61" s="3">
+        <v>43606</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
       <c r="A62" s="2" t="s">
         <v>36</v>
       </c>
@@ -1450,13 +1645,16 @@
         <v>0</v>
       </c>
       <c r="C62">
-        <v>250</v>
+        <v>126</v>
       </c>
       <c r="D62" s="3">
-        <v>43602</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>43603</v>
+      </c>
+      <c r="E62" s="3">
+        <v>43605</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
       <c r="A63" s="2" t="s">
         <v>37</v>
       </c>
@@ -1464,201 +1662,234 @@
         <v>0</v>
       </c>
       <c r="C63">
-        <v>882</v>
+        <v>229</v>
       </c>
       <c r="D63" s="3">
-        <v>43605</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
-      <c r="A64" s="2" t="s">
+        <v>43609</v>
+      </c>
+      <c r="E63" s="3">
+        <v>43612</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" s="2"/>
+      <c r="B64" s="2">
+        <v>1</v>
+      </c>
+      <c r="C64">
+        <v>126</v>
+      </c>
+      <c r="E64" s="3">
+        <v>43621</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B64" s="2">
-        <v>0</v>
-      </c>
-      <c r="C64">
-        <v>252</v>
-      </c>
-      <c r="D64" s="3">
-        <v>43607</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
-      <c r="A65" s="2" t="s">
+      <c r="B65" s="2">
+        <v>0</v>
+      </c>
+      <c r="C65">
+        <v>1004</v>
+      </c>
+      <c r="D65" s="3">
+        <v>43603</v>
+      </c>
+      <c r="E65" s="3">
+        <v>43605</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B65" s="2">
-        <v>0</v>
-      </c>
-      <c r="C65">
-        <v>49</v>
-      </c>
-      <c r="D65" s="3">
-        <v>43602</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
-      <c r="A66" s="2" t="s">
+      <c r="B66" s="2">
+        <v>0</v>
+      </c>
+      <c r="C66">
+        <v>288</v>
+      </c>
+      <c r="E66" s="3">
+        <v>43613</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B66" s="2">
-        <v>0</v>
-      </c>
-      <c r="C66">
-        <v>85</v>
-      </c>
-      <c r="D66" s="3">
-        <v>43607</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
-      <c r="A67" s="2" t="s">
+      <c r="B67" s="2">
+        <v>0</v>
+      </c>
+      <c r="C67">
+        <v>126</v>
+      </c>
+      <c r="E67" s="3">
+        <v>43613</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B67" s="2">
-        <v>0</v>
-      </c>
-      <c r="C67">
-        <v>282</v>
-      </c>
-      <c r="D67" s="3">
-        <v>43602</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
-      <c r="A68" s="2" t="s">
+      <c r="B68" s="2">
+        <v>0</v>
+      </c>
+      <c r="C68">
+        <v>244</v>
+      </c>
+      <c r="D68" s="3">
+        <v>43605</v>
+      </c>
+      <c r="E68" s="3">
+        <v>43605</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B68" s="2">
-        <v>0</v>
-      </c>
-      <c r="C68">
-        <v>576</v>
-      </c>
-      <c r="D68" s="3">
-        <v>43602</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
-      <c r="A69" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="B69" s="2">
         <v>0</v>
       </c>
       <c r="C69">
-        <v>745</v>
+        <v>194</v>
       </c>
       <c r="D69" s="3">
         <v>43602</v>
       </c>
-    </row>
-    <row r="70" spans="1:4">
-      <c r="A70" s="2" t="s">
+      <c r="E69" s="3">
+        <v>43608</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" s="2"/>
+      <c r="B70" s="2">
+        <v>1</v>
+      </c>
+      <c r="C70">
+        <v>1008</v>
+      </c>
+      <c r="D70" s="3">
+        <v>43612</v>
+      </c>
+      <c r="E70" s="3">
+        <v>43615</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" s="2"/>
+      <c r="B71" s="2">
+        <v>2</v>
+      </c>
+      <c r="C71">
+        <v>1008</v>
+      </c>
+      <c r="D71" s="3">
+        <v>43620</v>
+      </c>
+      <c r="E71" s="3">
+        <v>43622</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B72" s="2">
+        <v>0</v>
+      </c>
+      <c r="C72">
+        <v>250</v>
+      </c>
+      <c r="D72" s="3">
+        <v>43602</v>
+      </c>
+      <c r="E72" s="3">
+        <v>43605</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B70" s="2">
-        <v>0</v>
-      </c>
-      <c r="C70">
-        <v>20</v>
-      </c>
-      <c r="D70" s="3">
-        <v>43599</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
-      <c r="A71" s="2" t="s">
+      <c r="B73" s="2">
+        <v>0</v>
+      </c>
+      <c r="C73">
+        <v>882</v>
+      </c>
+      <c r="D73" s="3">
+        <v>43605</v>
+      </c>
+      <c r="E73" s="3">
+        <v>43606</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B71" s="2">
-        <v>0</v>
-      </c>
-      <c r="C71">
-        <v>288</v>
-      </c>
-      <c r="D71" s="3">
-        <v>43603</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
-      <c r="A72" s="2"/>
-      <c r="B72" s="2">
-        <v>1</v>
-      </c>
-      <c r="C72">
-        <v>144</v>
-      </c>
-      <c r="D72" s="3">
-        <v>43605</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
-      <c r="A73" s="2"/>
-      <c r="B73" s="2">
-        <v>2</v>
-      </c>
-      <c r="C73">
-        <v>144</v>
-      </c>
-      <c r="D73" s="3">
-        <v>43605</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
-      <c r="A74" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="B74" s="2">
         <v>0</v>
       </c>
       <c r="C74">
-        <v>278</v>
-      </c>
-      <c r="D74" s="3">
-        <v>43605</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>12</v>
+      </c>
+      <c r="E74" s="3">
+        <v>43613</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
       <c r="A75" s="2"/>
       <c r="B75" s="2">
         <v>1</v>
       </c>
       <c r="C75">
-        <v>504</v>
+        <v>252</v>
       </c>
       <c r="D75" s="3">
-        <v>43605</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>43607</v>
+      </c>
+      <c r="E75" s="3">
+        <v>43613</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
       <c r="A76" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B76" s="2">
+        <v>0</v>
+      </c>
+      <c r="C76">
+        <v>49</v>
+      </c>
+      <c r="D76" s="3">
+        <v>43602</v>
+      </c>
+      <c r="E76" s="3">
+        <v>43606</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B76" s="2">
-        <v>0</v>
-      </c>
-      <c r="C76">
-        <v>54</v>
-      </c>
-      <c r="D76" s="3">
-        <v>43605</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
-      <c r="A77" s="2"/>
       <c r="B77" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C77">
-        <v>200</v>
+        <v>85</v>
       </c>
       <c r="D77" s="3">
-        <v>43605</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>43607</v>
+      </c>
+      <c r="E77" s="3">
+        <v>43607</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
       <c r="A78" s="2" t="s">
         <v>48</v>
       </c>
@@ -1666,355 +1897,679 @@
         <v>0</v>
       </c>
       <c r="C78">
-        <v>252</v>
+        <v>282</v>
       </c>
       <c r="D78" s="3">
-        <v>43605</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
-      <c r="A79" s="2"/>
+        <v>43602</v>
+      </c>
+      <c r="E78" s="3">
+        <v>43609</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79" s="2" t="s">
+        <v>49</v>
+      </c>
       <c r="B79" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C79">
-        <v>126</v>
+        <v>576</v>
       </c>
       <c r="D79" s="3">
-        <v>43607</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>43602</v>
+      </c>
+      <c r="E79" s="3">
+        <v>43609</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
       <c r="A80" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B80" s="2">
         <v>0</v>
       </c>
       <c r="C80">
-        <v>252</v>
+        <v>745</v>
       </c>
       <c r="D80" s="3">
-        <v>43601</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
-      <c r="A81" s="2"/>
+        <v>43602</v>
+      </c>
+      <c r="E80" s="3">
+        <v>43609</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="B81" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C81">
-        <v>504</v>
-      </c>
-      <c r="D81" s="3">
-        <v>43606</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>900</v>
+      </c>
+      <c r="E81" s="3">
+        <v>43566</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
       <c r="A82" s="2"/>
       <c r="B82" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C82">
-        <v>126</v>
+        <v>20</v>
       </c>
       <c r="D82" s="3">
-        <v>43607</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>43599</v>
+      </c>
+      <c r="E82" s="3">
+        <v>43581</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
       <c r="A83" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B83" s="2">
         <v>0</v>
       </c>
       <c r="C83">
-        <v>43</v>
+        <v>288</v>
       </c>
       <c r="D83" s="3">
-        <v>43607</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
-      <c r="A84" s="2" t="s">
-        <v>51</v>
-      </c>
+        <v>43603</v>
+      </c>
+      <c r="E83" s="3">
+        <v>43605</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84" s="2"/>
       <c r="B84" s="2">
         <v>1</v>
       </c>
       <c r="C84">
-        <v>378</v>
+        <v>144</v>
       </c>
       <c r="D84" s="3">
-        <v>43614</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>43605</v>
+      </c>
+      <c r="E84" s="3">
+        <v>43607</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
       <c r="A85" s="2"/>
       <c r="B85" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C85">
-        <v>105</v>
+        <v>144</v>
       </c>
       <c r="D85" s="3">
-        <v>43616</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
-      <c r="A86" s="2"/>
+        <v>43605</v>
+      </c>
+      <c r="E85" s="3">
+        <v>43607</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86" s="2" t="s">
+        <v>53</v>
+      </c>
       <c r="B86" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C86">
-        <v>756</v>
+        <v>278</v>
       </c>
       <c r="D86" s="3">
-        <v>43616</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>43605</v>
+      </c>
+      <c r="E86" s="3">
+        <v>43607</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
       <c r="A87" s="2"/>
       <c r="B87" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C87">
-        <v>630</v>
+        <v>504</v>
       </c>
       <c r="D87" s="3">
-        <v>43623</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
-      <c r="A88" s="2"/>
+        <v>43605</v>
+      </c>
+      <c r="E87" s="3">
+        <v>43607</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88" s="2" t="s">
+        <v>54</v>
+      </c>
       <c r="B88" s="2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C88">
-        <v>1386</v>
+        <v>54</v>
       </c>
       <c r="D88" s="3">
-        <v>43634</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
-      <c r="A89" s="2" t="s">
-        <v>52</v>
-      </c>
+        <v>43605</v>
+      </c>
+      <c r="E88" s="3">
+        <v>43606</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89" s="2"/>
       <c r="B89" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C89">
-        <v>126</v>
+        <v>200</v>
       </c>
       <c r="D89" s="3">
-        <v>43607</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>43605</v>
+      </c>
+      <c r="E89" s="3">
+        <v>43606</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
       <c r="A90" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B90" s="2">
         <v>0</v>
       </c>
       <c r="C90">
-        <v>32</v>
-      </c>
-      <c r="D90" s="3">
-        <v>43601</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
-      <c r="A91" s="2" t="s">
-        <v>54</v>
-      </c>
+        <v>252</v>
+      </c>
+      <c r="E90" s="3">
+        <v>43591</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91" s="2"/>
       <c r="B91" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C91">
-        <v>108</v>
+        <v>252</v>
       </c>
       <c r="D91" s="3">
-        <v>43608</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>43605</v>
+      </c>
+      <c r="E91" s="3">
+        <v>43605</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
       <c r="A92" s="2"/>
       <c r="B92" s="2">
+        <v>2</v>
+      </c>
+      <c r="C92">
+        <v>126</v>
+      </c>
+      <c r="D92" s="3">
+        <v>43607</v>
+      </c>
+      <c r="E92" s="3">
+        <v>43612</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="A93" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B93" s="2">
+        <v>0</v>
+      </c>
+      <c r="C93">
+        <v>186</v>
+      </c>
+      <c r="E93" s="3">
+        <v>43595</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
+      <c r="A94" s="2"/>
+      <c r="B94" s="2">
         <v>1</v>
       </c>
-      <c r="C92">
-        <v>576</v>
-      </c>
-      <c r="D92" s="3">
-        <v>43614</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
-      <c r="A93" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B93" s="2">
-        <v>0</v>
-      </c>
-      <c r="C93">
-        <v>900</v>
-      </c>
-      <c r="D93" s="3">
-        <v>43595</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
-      <c r="A94" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B94" s="2">
-        <v>0</v>
-      </c>
       <c r="C94">
-        <v>406</v>
+        <v>252</v>
       </c>
       <c r="D94" s="3">
-        <v>43595</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
-      <c r="A95" s="2" t="s">
+        <v>43601</v>
+      </c>
+      <c r="E94" s="3">
+        <v>43601</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
+      <c r="A95" s="2"/>
+      <c r="B95" s="2">
+        <v>2</v>
+      </c>
+      <c r="C95">
+        <v>504</v>
+      </c>
+      <c r="D95" s="3">
+        <v>43606</v>
+      </c>
+      <c r="E95" s="3">
+        <v>43607</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
+      <c r="A96" s="2"/>
+      <c r="B96" s="2">
+        <v>3</v>
+      </c>
+      <c r="C96">
+        <v>126</v>
+      </c>
+      <c r="D96" s="3">
+        <v>43607</v>
+      </c>
+      <c r="E96" s="3">
+        <v>43612</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B95" s="2">
-        <v>0</v>
-      </c>
-      <c r="C95">
-        <v>91</v>
-      </c>
-      <c r="D95" s="3">
-        <v>43592</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
-      <c r="A96" s="2" t="s">
+      <c r="B97" s="2">
+        <v>0</v>
+      </c>
+      <c r="C97">
+        <v>43</v>
+      </c>
+      <c r="D97" s="3">
+        <v>43607</v>
+      </c>
+      <c r="E97" s="3">
+        <v>43607</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="A98" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B96" s="2">
-        <v>0</v>
-      </c>
-      <c r="C96">
-        <v>61</v>
-      </c>
-      <c r="D96" s="3">
-        <v>43588</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
-      <c r="A97" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B97" s="2">
-        <v>0</v>
-      </c>
-      <c r="C97">
-        <v>450</v>
-      </c>
-      <c r="D97" s="3">
-        <v>43599</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
-      <c r="A98" s="2"/>
       <c r="B98" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C98">
-        <v>3168</v>
-      </c>
-      <c r="D98" s="3">
-        <v>43605</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>1868</v>
+      </c>
+      <c r="E98" s="3">
+        <v>43612</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
       <c r="A99" s="2"/>
       <c r="B99" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C99">
-        <v>2880</v>
-      </c>
-      <c r="D99" s="3">
-        <v>43605</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>2160</v>
+      </c>
+      <c r="E99" s="3">
+        <v>43613</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
       <c r="A100" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B100" s="2">
         <v>0</v>
       </c>
       <c r="C100">
-        <v>634</v>
+        <v>105</v>
       </c>
       <c r="D100" s="3">
-        <v>43600</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
+        <v>43616</v>
+      </c>
+      <c r="E100" s="3">
+        <v>43619</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
       <c r="A101" s="2"/>
       <c r="B101" s="2">
         <v>1</v>
       </c>
       <c r="C101">
-        <v>3168</v>
+        <v>378</v>
       </c>
       <c r="D101" s="3">
-        <v>43605</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>43614</v>
+      </c>
+      <c r="E101" s="3">
+        <v>43622</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5">
       <c r="A102" s="2"/>
       <c r="B102" s="2">
         <v>2</v>
       </c>
       <c r="C102">
-        <v>3168</v>
+        <v>756</v>
       </c>
       <c r="D102" s="3">
-        <v>43606</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>43616</v>
+      </c>
+      <c r="E102" s="3">
+        <v>43623</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5">
       <c r="A103" s="2"/>
       <c r="B103" s="2">
         <v>3</v>
       </c>
       <c r="C103">
+        <v>630</v>
+      </c>
+      <c r="D103" s="3">
+        <v>43623</v>
+      </c>
+      <c r="E103" s="3">
+        <v>43628</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5">
+      <c r="A104" s="2"/>
+      <c r="B104" s="2">
+        <v>4</v>
+      </c>
+      <c r="C104">
+        <v>1386</v>
+      </c>
+      <c r="D104" s="3">
+        <v>43634</v>
+      </c>
+      <c r="E104" s="3">
+        <v>43634</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5">
+      <c r="A105" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B105" s="2">
+        <v>0</v>
+      </c>
+      <c r="C105">
+        <v>126</v>
+      </c>
+      <c r="D105" s="3">
+        <v>43607</v>
+      </c>
+      <c r="E105" s="3">
+        <v>43612</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5">
+      <c r="A106" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B106" s="2">
+        <v>0</v>
+      </c>
+      <c r="C106">
+        <v>32</v>
+      </c>
+      <c r="D106" s="3">
+        <v>43601</v>
+      </c>
+      <c r="E106" s="3">
+        <v>43605</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5">
+      <c r="A107" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B107" s="2">
+        <v>0</v>
+      </c>
+      <c r="C107">
+        <v>108</v>
+      </c>
+      <c r="D107" s="3">
+        <v>43608</v>
+      </c>
+      <c r="E107" s="3">
+        <v>43612</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5">
+      <c r="A108" s="2"/>
+      <c r="B108" s="2">
+        <v>1</v>
+      </c>
+      <c r="C108">
+        <v>576</v>
+      </c>
+      <c r="D108" s="3">
+        <v>43614</v>
+      </c>
+      <c r="E108" s="3">
+        <v>43619</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5">
+      <c r="A109" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B109" s="2">
+        <v>0</v>
+      </c>
+      <c r="C109">
+        <v>900</v>
+      </c>
+      <c r="D109" s="3">
+        <v>43595</v>
+      </c>
+      <c r="E109" s="3">
+        <v>43595</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5">
+      <c r="A110" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B110" s="2">
+        <v>0</v>
+      </c>
+      <c r="C110">
+        <v>406</v>
+      </c>
+      <c r="D110" s="3">
+        <v>43595</v>
+      </c>
+      <c r="E110" s="3">
+        <v>43595</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5">
+      <c r="A111" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B111" s="2">
+        <v>0</v>
+      </c>
+      <c r="C111">
+        <v>91</v>
+      </c>
+      <c r="D111" s="3">
+        <v>43592</v>
+      </c>
+      <c r="E111" s="3">
+        <v>43592</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5">
+      <c r="A112" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B112" s="2">
+        <v>0</v>
+      </c>
+      <c r="C112">
+        <v>61</v>
+      </c>
+      <c r="D112" s="3">
+        <v>43588</v>
+      </c>
+      <c r="E112" s="3">
+        <v>43588</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5">
+      <c r="A113" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B113" s="2">
+        <v>0</v>
+      </c>
+      <c r="C113">
+        <v>450</v>
+      </c>
+      <c r="D113" s="3">
+        <v>43599</v>
+      </c>
+      <c r="E113" s="3">
+        <v>43599</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5">
+      <c r="A114" s="2"/>
+      <c r="B114" s="2">
+        <v>1</v>
+      </c>
+      <c r="C114">
+        <v>3168</v>
+      </c>
+      <c r="D114" s="3">
+        <v>43605</v>
+      </c>
+      <c r="E114" s="3">
+        <v>43605</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5">
+      <c r="A115" s="2"/>
+      <c r="B115" s="2">
+        <v>2</v>
+      </c>
+      <c r="C115">
+        <v>2880</v>
+      </c>
+      <c r="D115" s="3">
+        <v>43605</v>
+      </c>
+      <c r="E115" s="3">
+        <v>43605</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5">
+      <c r="A116" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B116" s="2">
+        <v>0</v>
+      </c>
+      <c r="C116">
+        <v>634</v>
+      </c>
+      <c r="D116" s="3">
+        <v>43600</v>
+      </c>
+      <c r="E116" s="3">
+        <v>43600</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5">
+      <c r="A117" s="2"/>
+      <c r="B117" s="2">
+        <v>1</v>
+      </c>
+      <c r="C117">
+        <v>3168</v>
+      </c>
+      <c r="D117" s="3">
+        <v>43605</v>
+      </c>
+      <c r="E117" s="3">
+        <v>43605</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5">
+      <c r="A118" s="2"/>
+      <c r="B118" s="2">
+        <v>2</v>
+      </c>
+      <c r="C118">
+        <v>3168</v>
+      </c>
+      <c r="D118" s="3">
+        <v>43606</v>
+      </c>
+      <c r="E118" s="3">
+        <v>43606</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5">
+      <c r="A119" s="2"/>
+      <c r="B119" s="2">
+        <v>3</v>
+      </c>
+      <c r="C119">
         <v>2736</v>
       </c>
-      <c r="D103" s="3">
+      <c r="D119" s="3">
         <v>43606</v>
       </c>
+      <c r="E119" s="3">
+        <v>43606</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="22">
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="A5:A9"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A22"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="A47:A51"/>
-    <mergeCell ref="A59:A61"/>
-    <mergeCell ref="A71:A73"/>
+    <mergeCell ref="A12:A24"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="A30:A32"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="A53:A57"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="A69:A71"/>
     <mergeCell ref="A74:A75"/>
-    <mergeCell ref="A76:A77"/>
-    <mergeCell ref="A78:A79"/>
-    <mergeCell ref="A80:A82"/>
-    <mergeCell ref="A84:A88"/>
-    <mergeCell ref="A91:A92"/>
-    <mergeCell ref="A97:A99"/>
-    <mergeCell ref="A100:A103"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="A83:A85"/>
+    <mergeCell ref="A86:A87"/>
+    <mergeCell ref="A88:A89"/>
+    <mergeCell ref="A90:A92"/>
+    <mergeCell ref="A93:A96"/>
+    <mergeCell ref="A98:A99"/>
+    <mergeCell ref="A100:A104"/>
+    <mergeCell ref="A107:A108"/>
+    <mergeCell ref="A113:A115"/>
+    <mergeCell ref="A116:A119"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2022,7 +2577,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J55"/>
+  <dimension ref="A1:L68"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2030,35 +2585,43 @@
   <cols>
     <col min="2" max="2" width="0" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="15.7109375" customWidth="1"/>
-    <col min="8" max="8" width="0" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="15.7109375" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" customWidth="1"/>
+    <col min="9" max="9" width="0" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="15.7109375" customWidth="1"/>
+    <col min="12" max="12" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="2" t="s">
-        <v>0</v>
+      <c r="E2" s="2" t="s">
+        <v>2</v>
       </c>
       <c r="J2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:10">
+      <c r="L2" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="2" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="B3" s="2">
         <v>0</v>
@@ -2069,173 +2632,290 @@
       <c r="D3" s="3">
         <v>43613</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="H3" s="2">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>14</v>
-      </c>
-      <c r="J3" s="3">
-        <v>43607</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
+      <c r="E3" s="3">
+        <v>43615</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="I3" s="2">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>48</v>
+      </c>
+      <c r="L3" s="3">
+        <v>43613</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="2" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="B4" s="2">
         <v>0</v>
       </c>
       <c r="C4">
+        <v>144</v>
+      </c>
+      <c r="E4" s="3">
+        <v>43605</v>
+      </c>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>60</v>
+      </c>
+      <c r="L4" s="3">
+        <v>43619</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0</v>
+      </c>
+      <c r="C5">
         <v>4</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D5" s="3">
         <v>43613</v>
       </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B5" s="2">
-        <v>0</v>
-      </c>
-      <c r="C5">
+      <c r="E5" s="3">
+        <v>43615</v>
+      </c>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2">
+        <v>2</v>
+      </c>
+      <c r="J5">
+        <v>60</v>
+      </c>
+      <c r="L5" s="3">
+        <v>43621</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0</v>
+      </c>
+      <c r="C6">
         <v>966</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D6" s="3">
         <v>43602</v>
       </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B6" s="2">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>32</v>
-      </c>
-      <c r="D6" s="3">
-        <v>43606</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="2"/>
+      <c r="E6" s="3">
+        <v>43605</v>
+      </c>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2">
+        <v>3</v>
+      </c>
+      <c r="J6">
+        <v>39</v>
+      </c>
+      <c r="L6" s="3">
+        <v>43622</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="2" t="s">
+        <v>74</v>
+      </c>
       <c r="B7" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C7">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="D7" s="3">
-        <v>43609</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
+        <v>76480</v>
+      </c>
+      <c r="E7" s="3">
+        <v>43618</v>
+      </c>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2">
+        <v>4</v>
+      </c>
+      <c r="J7">
+        <v>8</v>
+      </c>
+      <c r="L7" s="3">
+        <v>43623</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" s="2"/>
       <c r="B8" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C8">
         <v>32</v>
       </c>
       <c r="D8" s="3">
-        <v>43613</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
+        <v>43606</v>
+      </c>
+      <c r="E8" s="3">
+        <v>43618</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="I8" s="2">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>14</v>
+      </c>
+      <c r="K8" s="3">
+        <v>43607</v>
+      </c>
+      <c r="L8" s="3">
+        <v>43609</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" s="2"/>
       <c r="B9" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C9">
         <v>32</v>
       </c>
       <c r="D9" s="3">
-        <v>43615</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
+        <v>43616</v>
+      </c>
+      <c r="E9" s="3">
+        <v>43618</v>
+      </c>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>21</v>
+      </c>
+      <c r="L9" s="3">
+        <v>43622</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" s="2"/>
       <c r="B10" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C10">
-        <v>32</v>
-      </c>
-      <c r="D10" s="3">
-        <v>43616</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
+        <v>40</v>
+      </c>
+      <c r="E10" s="3">
+        <v>43620</v>
+      </c>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2">
+        <v>2</v>
+      </c>
+      <c r="J10">
+        <v>60</v>
+      </c>
+      <c r="L10" s="3">
+        <v>43623</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" s="2"/>
       <c r="B11" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C11">
         <v>38</v>
       </c>
       <c r="D11" s="3">
-        <v>43616</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
+        <v>43609</v>
+      </c>
+      <c r="E11" s="3">
+        <v>43621</v>
+      </c>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2">
+        <v>3</v>
+      </c>
+      <c r="J11">
+        <v>8</v>
+      </c>
+      <c r="L11" s="3">
+        <v>43623</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12" s="2"/>
       <c r="B12" s="2">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C12">
-        <v>32</v>
-      </c>
-      <c r="D12" s="3">
-        <v>43620</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
+        <v>25</v>
+      </c>
+      <c r="E12" s="3">
+        <v>43623</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13" s="2"/>
       <c r="B13" s="2">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C13">
         <v>32</v>
       </c>
       <c r="D13" s="3">
-        <v>43622</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
+        <v>43615</v>
+      </c>
+      <c r="E13" s="3">
+        <v>43625</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14" s="2"/>
       <c r="B14" s="2">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C14">
         <v>32</v>
       </c>
       <c r="D14" s="3">
-        <v>43622</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
+        <v>43613</v>
+      </c>
+      <c r="E14" s="3">
+        <v>43625</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15" s="2"/>
       <c r="B15" s="2">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C15">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D15" s="3">
+        <v>43616</v>
+      </c>
+      <c r="E15" s="3">
         <v>43628</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:12">
       <c r="A16" s="2"/>
       <c r="B16" s="2">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C16">
         <v>40</v>
@@ -2243,11 +2923,14 @@
       <c r="D16" s="3">
         <v>43628</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="E16" s="3">
+        <v>43629</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" s="2"/>
       <c r="B17" s="2">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C17">
         <v>40</v>
@@ -2255,11 +2938,14 @@
       <c r="D17" s="3">
         <v>43628</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17" s="3">
+        <v>43630</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" s="2"/>
       <c r="B18" s="2">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C18">
         <v>40</v>
@@ -2267,11 +2953,14 @@
       <c r="D18" s="3">
         <v>43628</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18" s="3">
+        <v>43630</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" s="2"/>
       <c r="B19" s="2">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C19">
         <v>40</v>
@@ -2279,453 +2968,743 @@
       <c r="D19" s="3">
         <v>43628</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="2" t="s">
-        <v>66</v>
-      </c>
+      <c r="E19" s="3">
+        <v>43630</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="2"/>
       <c r="B20" s="2">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="C20">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="D20" s="3">
-        <v>43603</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>43628</v>
+      </c>
+      <c r="E20" s="3">
+        <v>43630</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21" s="2"/>
       <c r="B21" s="2">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="C21">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="D21" s="3">
-        <v>43606</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>43622</v>
+      </c>
+      <c r="E21" s="3">
+        <v>43632</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22" s="2"/>
       <c r="B22" s="2">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="C22">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="D22" s="3">
-        <v>43606</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>43620</v>
+      </c>
+      <c r="E22" s="3">
+        <v>43632</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23" s="2"/>
       <c r="B23" s="2">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C23">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="D23" s="3">
-        <v>43606</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="2"/>
+        <v>43622</v>
+      </c>
+      <c r="E23" s="3">
+        <v>43632</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="2" t="s">
+        <v>75</v>
+      </c>
       <c r="B24" s="2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C24">
-        <v>6</v>
-      </c>
-      <c r="D24" s="3">
-        <v>43606</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>40</v>
+      </c>
+      <c r="E24" s="3">
+        <v>43619</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25" s="2"/>
       <c r="B25" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C25">
-        <v>6</v>
-      </c>
-      <c r="D25" s="3">
-        <v>43608</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="E25" s="3">
+        <v>43620</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="2" t="s">
+        <v>76</v>
+      </c>
       <c r="B26" s="2">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C26">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="D26" s="3">
-        <v>43608</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>43603</v>
+      </c>
+      <c r="E26" s="3">
+        <v>43615</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27" s="2"/>
       <c r="B27" s="2">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C27">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D27" s="3">
-        <v>43613</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
+        <v>43606</v>
+      </c>
+      <c r="E27" s="3">
+        <v>43616</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
       <c r="A28" s="2"/>
       <c r="B28" s="2">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C28">
         <v>6</v>
       </c>
       <c r="D28" s="3">
-        <v>43615</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>43616</v>
+      </c>
+      <c r="E28" s="3">
+        <v>43618</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
       <c r="A29" s="2"/>
       <c r="B29" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C29">
         <v>6</v>
       </c>
       <c r="D29" s="3">
-        <v>43616</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>43608</v>
+      </c>
+      <c r="E29" s="3">
+        <v>43618</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
       <c r="A30" s="2"/>
       <c r="B30" s="2">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C30">
         <v>6</v>
       </c>
       <c r="D30" s="3">
-        <v>43620</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>43606</v>
+      </c>
+      <c r="E30" s="3">
+        <v>43618</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
       <c r="A31" s="2"/>
       <c r="B31" s="2">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C31">
         <v>6</v>
       </c>
       <c r="D31" s="3">
-        <v>43622</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>43606</v>
+      </c>
+      <c r="E31" s="3">
+        <v>43618</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
       <c r="A32" s="2"/>
       <c r="B32" s="2">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C32">
         <v>6</v>
       </c>
       <c r="D32" s="3">
-        <v>43622</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>43606</v>
+      </c>
+      <c r="E32" s="3">
+        <v>43618</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
       <c r="A33" s="2"/>
       <c r="B33" s="2">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C33">
-        <v>40</v>
+        <v>6</v>
       </c>
       <c r="D33" s="3">
+        <v>76480</v>
+      </c>
+      <c r="E33" s="3">
+        <v>43618</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="2"/>
+      <c r="B34" s="2">
+        <v>8</v>
+      </c>
+      <c r="C34">
+        <v>6</v>
+      </c>
+      <c r="D34" s="3">
+        <v>43608</v>
+      </c>
+      <c r="E34" s="3">
+        <v>43618</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="2"/>
+      <c r="B35" s="2">
+        <v>9</v>
+      </c>
+      <c r="C35">
+        <v>7</v>
+      </c>
+      <c r="E35" s="3">
         <v>43623</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
-      <c r="A34" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B34" s="2">
-        <v>0</v>
-      </c>
-      <c r="C34">
-        <v>21</v>
-      </c>
-      <c r="D34" s="3">
-        <v>43607</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B35" s="2">
-        <v>0</v>
-      </c>
-      <c r="C35">
-        <v>25</v>
-      </c>
-      <c r="D35" s="3">
-        <v>43602</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:5">
       <c r="A36" s="2"/>
       <c r="B36" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C36">
-        <v>432</v>
+        <v>6</v>
       </c>
       <c r="D36" s="3">
-        <v>43606</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>43613</v>
+      </c>
+      <c r="E36" s="3">
+        <v>43625</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
       <c r="A37" s="2"/>
       <c r="B37" s="2">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C37">
-        <v>1056</v>
+        <v>6</v>
       </c>
       <c r="D37" s="3">
-        <v>43607</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>43615</v>
+      </c>
+      <c r="E37" s="3">
+        <v>43625</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
       <c r="A38" s="2"/>
       <c r="B38" s="2">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C38">
-        <v>528</v>
+        <v>40</v>
       </c>
       <c r="D38" s="3">
-        <v>43608</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>43623</v>
+      </c>
+      <c r="E38" s="3">
+        <v>43626</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
       <c r="A39" s="2"/>
       <c r="B39" s="2">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C39">
-        <v>1056</v>
+        <v>6</v>
       </c>
       <c r="D39" s="3">
-        <v>43609</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>43620</v>
+      </c>
+      <c r="E39" s="3">
+        <v>43632</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
       <c r="A40" s="2"/>
       <c r="B40" s="2">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="C40">
-        <v>1008</v>
+        <v>6</v>
       </c>
       <c r="D40" s="3">
-        <v>43610</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>43622</v>
+      </c>
+      <c r="E40" s="3">
+        <v>43632</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
       <c r="A41" s="2"/>
       <c r="B41" s="2">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C41">
-        <v>960</v>
+        <v>6</v>
       </c>
       <c r="D41" s="3">
-        <v>43611</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
-      <c r="A42" s="2"/>
+        <v>43622</v>
+      </c>
+      <c r="E41" s="3">
+        <v>43632</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="2" t="s">
+        <v>77</v>
+      </c>
       <c r="B42" s="2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C42">
-        <v>192</v>
+        <v>21</v>
       </c>
       <c r="D42" s="3">
-        <v>43612</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
-      <c r="A43" s="2"/>
+        <v>43607</v>
+      </c>
+      <c r="E42" s="3">
+        <v>43609</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="B43" s="2">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C43">
-        <v>1056</v>
+        <v>25</v>
       </c>
       <c r="D43" s="3">
-        <v>43612</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>43602</v>
+      </c>
+      <c r="E43" s="3">
+        <v>43605</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
       <c r="A44" s="2"/>
       <c r="B44" s="2">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C44">
-        <v>1056</v>
+        <v>432</v>
       </c>
       <c r="D44" s="3">
-        <v>43612</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>43606</v>
+      </c>
+      <c r="E44" s="3">
+        <v>43606</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
       <c r="A45" s="2"/>
       <c r="B45" s="2">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C45">
-        <v>864</v>
+        <v>1056</v>
       </c>
       <c r="D45" s="3">
-        <v>43613</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
+        <v>43607</v>
+      </c>
+      <c r="E45" s="3">
+        <v>43607</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
       <c r="A46" s="2"/>
       <c r="B46" s="2">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C46">
-        <v>1056</v>
+        <v>528</v>
       </c>
       <c r="D46" s="3">
-        <v>43613</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>43608</v>
+      </c>
+      <c r="E46" s="3">
+        <v>43608</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
       <c r="A47" s="2"/>
       <c r="B47" s="2">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C47">
         <v>1008</v>
       </c>
       <c r="D47" s="3">
-        <v>43616</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
-      <c r="A48" s="2" t="s">
-        <v>69</v>
-      </c>
+        <v>43610</v>
+      </c>
+      <c r="E47" s="3">
+        <v>43610</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="2"/>
       <c r="B48" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C48">
-        <v>2</v>
+        <v>960</v>
       </c>
       <c r="D48" s="3">
-        <v>43619</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>43611</v>
+      </c>
+      <c r="E48" s="3">
+        <v>43611</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
       <c r="A49" s="2"/>
       <c r="B49" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C49">
-        <v>39</v>
+        <v>192</v>
       </c>
       <c r="D49" s="3">
-        <v>43619</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>43612</v>
+      </c>
+      <c r="E49" s="3">
+        <v>43612</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
       <c r="A50" s="2"/>
       <c r="B50" s="2">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C50">
-        <v>39</v>
+        <v>1056</v>
       </c>
       <c r="D50" s="3">
-        <v>43626</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>43612</v>
+      </c>
+      <c r="E50" s="3">
+        <v>43612</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
       <c r="A51" s="2"/>
       <c r="B51" s="2">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C51">
-        <v>39</v>
+        <v>1056</v>
       </c>
       <c r="D51" s="3">
-        <v>43626</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>43609</v>
+      </c>
+      <c r="E51" s="3">
+        <v>43612</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
       <c r="A52" s="2"/>
       <c r="B52" s="2">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C52">
-        <v>39</v>
+        <v>1056</v>
       </c>
       <c r="D52" s="3">
-        <v>43633</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+        <v>43612</v>
+      </c>
+      <c r="E52" s="3">
+        <v>43612</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
       <c r="A53" s="2"/>
       <c r="B53" s="2">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C53">
-        <v>39</v>
+        <v>864</v>
       </c>
       <c r="D53" s="3">
-        <v>43633</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>43613</v>
+      </c>
+      <c r="E53" s="3">
+        <v>43613</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
       <c r="A54" s="2"/>
       <c r="B54" s="2">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C54">
-        <v>39</v>
+        <v>1056</v>
       </c>
       <c r="D54" s="3">
-        <v>43633</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>43613</v>
+      </c>
+      <c r="E54" s="3">
+        <v>43613</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
       <c r="A55" s="2"/>
       <c r="B55" s="2">
+        <v>12</v>
+      </c>
+      <c r="C55">
+        <v>1008</v>
+      </c>
+      <c r="D55" s="3">
+        <v>43616</v>
+      </c>
+      <c r="E55" s="3">
+        <v>43616</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B56" s="2">
+        <v>0</v>
+      </c>
+      <c r="C56">
+        <v>2</v>
+      </c>
+      <c r="D56" s="3">
+        <v>43619</v>
+      </c>
+      <c r="E56" s="3">
+        <v>43621</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" s="2"/>
+      <c r="B57" s="2">
+        <v>1</v>
+      </c>
+      <c r="C57">
+        <v>39</v>
+      </c>
+      <c r="D57" s="3">
+        <v>43619</v>
+      </c>
+      <c r="E57" s="3">
+        <v>43621</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" s="2"/>
+      <c r="B58" s="2">
+        <v>2</v>
+      </c>
+      <c r="C58">
+        <v>39</v>
+      </c>
+      <c r="D58" s="3">
+        <v>43626</v>
+      </c>
+      <c r="E58" s="3">
+        <v>43628</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" s="2"/>
+      <c r="B59" s="2">
+        <v>3</v>
+      </c>
+      <c r="C59">
+        <v>39</v>
+      </c>
+      <c r="D59" s="3">
+        <v>43626</v>
+      </c>
+      <c r="E59" s="3">
+        <v>43628</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" s="2"/>
+      <c r="B60" s="2">
+        <v>4</v>
+      </c>
+      <c r="C60">
+        <v>39</v>
+      </c>
+      <c r="D60" s="3">
+        <v>43633</v>
+      </c>
+      <c r="E60" s="3">
+        <v>43635</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" s="2"/>
+      <c r="B61" s="2">
+        <v>5</v>
+      </c>
+      <c r="C61">
+        <v>39</v>
+      </c>
+      <c r="D61" s="3">
+        <v>43633</v>
+      </c>
+      <c r="E61" s="3">
+        <v>43635</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" s="2"/>
+      <c r="B62" s="2">
+        <v>6</v>
+      </c>
+      <c r="C62">
+        <v>39</v>
+      </c>
+      <c r="D62" s="3">
+        <v>43633</v>
+      </c>
+      <c r="E62" s="3">
+        <v>43635</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" s="2"/>
+      <c r="B63" s="2">
         <v>7</v>
       </c>
-      <c r="C55">
+      <c r="C63">
         <v>39</v>
       </c>
-      <c r="D55" s="3">
+      <c r="D63" s="3">
         <v>43633</v>
       </c>
+      <c r="E63" s="3">
+        <v>43635</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B64" s="2">
+        <v>0</v>
+      </c>
+      <c r="C64">
+        <v>9</v>
+      </c>
+      <c r="E64" s="3">
+        <v>43627</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" s="2"/>
+      <c r="B65" s="2">
+        <v>1</v>
+      </c>
+      <c r="C65">
+        <v>40</v>
+      </c>
+      <c r="E65" s="3">
+        <v>43627</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" s="2"/>
+      <c r="B66" s="2">
+        <v>2</v>
+      </c>
+      <c r="C66">
+        <v>40</v>
+      </c>
+      <c r="E66" s="3">
+        <v>43628</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" s="2"/>
+      <c r="B67" s="2">
+        <v>3</v>
+      </c>
+      <c r="C67">
+        <v>40</v>
+      </c>
+      <c r="E67" s="3">
+        <v>43628</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" s="2"/>
+      <c r="B68" s="2">
+        <v>4</v>
+      </c>
+      <c r="C68">
+        <v>40</v>
+      </c>
+      <c r="E68" s="3">
+        <v>43629</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A6:A19"/>
-    <mergeCell ref="A20:A33"/>
-    <mergeCell ref="A35:A47"/>
-    <mergeCell ref="A48:A55"/>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A26:A41"/>
+    <mergeCell ref="A43:A55"/>
+    <mergeCell ref="A56:A63"/>
+    <mergeCell ref="A64:A68"/>
+    <mergeCell ref="H3:H7"/>
+    <mergeCell ref="H8:H11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2733,7 +3712,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2741,26 +3720,31 @@
   <cols>
     <col min="2" max="2" width="0" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="15.7109375" customWidth="1"/>
-    <col min="8" max="8" width="0" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="15.7109375" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" customWidth="1"/>
+    <col min="9" max="9" width="0" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="15.7109375" customWidth="1"/>
+    <col min="12" max="12" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="2" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="B3" s="2">
         <v>0</v>
@@ -2771,10 +3755,13 @@
       <c r="D3" s="3">
         <v>43607</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" s="3">
+        <v>43608</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="2" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="B4" s="2">
         <v>0</v>
@@ -2785,10 +3772,13 @@
       <c r="D4" s="3">
         <v>43612</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" s="3">
+        <v>43613</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="2" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="B5" s="2">
         <v>0</v>
@@ -2799,8 +3789,11 @@
       <c r="D5" s="3">
         <v>43607</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" s="3">
+        <v>43608</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="2"/>
       <c r="B6" s="2">
         <v>1</v>
@@ -2810,6 +3803,9 @@
       </c>
       <c r="D6" s="3">
         <v>43612</v>
+      </c>
+      <c r="E6" s="3">
+        <v>43613</v>
       </c>
     </row>
   </sheetData>
@@ -2822,7 +3818,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D50"/>
+  <dimension ref="A1:E50"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2830,26 +3826,31 @@
   <cols>
     <col min="2" max="2" width="0" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="15.7109375" customWidth="1"/>
-    <col min="8" max="8" width="0" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="15.7109375" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" customWidth="1"/>
+    <col min="9" max="9" width="0" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="15.7109375" customWidth="1"/>
+    <col min="12" max="12" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="2" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="B3" s="2">
         <v>0</v>
@@ -2860,10 +3861,13 @@
       <c r="D3" s="3">
         <v>43612</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" s="3">
+        <v>43612</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="2" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="B4" s="2">
         <v>0</v>
@@ -2874,8 +3878,11 @@
       <c r="D4" s="3">
         <v>43605</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" s="3">
+        <v>43605</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="2"/>
       <c r="B5" s="2">
         <v>1</v>
@@ -2886,8 +3893,11 @@
       <c r="D5" s="3">
         <v>43605</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" s="3">
+        <v>43605</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="2"/>
       <c r="B6" s="2">
         <v>2</v>
@@ -2898,8 +3908,11 @@
       <c r="D6" s="3">
         <v>43605</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" s="3">
+        <v>43605</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="2"/>
       <c r="B7" s="2">
         <v>3</v>
@@ -2910,8 +3923,11 @@
       <c r="D7" s="3">
         <v>43605</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7" s="3">
+        <v>43605</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="2"/>
       <c r="B8" s="2">
         <v>4</v>
@@ -2922,8 +3938,11 @@
       <c r="D8" s="3">
         <v>43605</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8" s="3">
+        <v>43605</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" s="2"/>
       <c r="B9" s="2">
         <v>5</v>
@@ -2934,8 +3953,11 @@
       <c r="D9" s="3">
         <v>43605</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E9" s="3">
+        <v>43605</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" s="2"/>
       <c r="B10" s="2">
         <v>6</v>
@@ -2946,8 +3968,11 @@
       <c r="D10" s="3">
         <v>43605</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="E10" s="3">
+        <v>43605</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" s="2"/>
       <c r="B11" s="2">
         <v>7</v>
@@ -2958,8 +3983,11 @@
       <c r="D11" s="3">
         <v>43605</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="E11" s="3">
+        <v>43605</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" s="2"/>
       <c r="B12" s="2">
         <v>8</v>
@@ -2970,8 +3998,11 @@
       <c r="D12" s="3">
         <v>43608</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="E12" s="3">
+        <v>43608</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" s="2"/>
       <c r="B13" s="2">
         <v>9</v>
@@ -2982,8 +4013,11 @@
       <c r="D13" s="3">
         <v>43608</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="E13" s="3">
+        <v>43608</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" s="2"/>
       <c r="B14" s="2">
         <v>10</v>
@@ -2994,8 +4028,11 @@
       <c r="D14" s="3">
         <v>43608</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="E14" s="3">
+        <v>43608</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" s="2"/>
       <c r="B15" s="2">
         <v>11</v>
@@ -3006,8 +4043,11 @@
       <c r="D15" s="3">
         <v>43612</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15" s="3">
+        <v>43612</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" s="2"/>
       <c r="B16" s="2">
         <v>12</v>
@@ -3018,8 +4058,11 @@
       <c r="D16" s="3">
         <v>43612</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="E16" s="3">
+        <v>43612</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" s="2"/>
       <c r="B17" s="2">
         <v>13</v>
@@ -3030,8 +4073,11 @@
       <c r="D17" s="3">
         <v>43612</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17" s="3">
+        <v>43612</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" s="2"/>
       <c r="B18" s="2">
         <v>14</v>
@@ -3042,8 +4088,11 @@
       <c r="D18" s="3">
         <v>43612</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18" s="3">
+        <v>43612</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" s="2"/>
       <c r="B19" s="2">
         <v>15</v>
@@ -3054,10 +4103,13 @@
       <c r="D19" s="3">
         <v>43612</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19" s="3">
+        <v>43612</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" s="2" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="B20" s="2">
         <v>0</v>
@@ -3068,8 +4120,11 @@
       <c r="D20" s="3">
         <v>43609</v>
       </c>
-    </row>
-    <row r="21" spans="1:4">
+      <c r="E20" s="3">
+        <v>43609</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21" s="2"/>
       <c r="B21" s="2">
         <v>1</v>
@@ -3080,8 +4135,11 @@
       <c r="D21" s="3">
         <v>43613</v>
       </c>
-    </row>
-    <row r="22" spans="1:4">
+      <c r="E21" s="3">
+        <v>43613</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22" s="2"/>
       <c r="B22" s="2">
         <v>2</v>
@@ -3092,8 +4150,11 @@
       <c r="D22" s="3">
         <v>43616</v>
       </c>
-    </row>
-    <row r="23" spans="1:4">
+      <c r="E22" s="3">
+        <v>43616</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23" s="2"/>
       <c r="B23" s="2">
         <v>3</v>
@@ -3104,8 +4165,11 @@
       <c r="D23" s="3">
         <v>43619</v>
       </c>
-    </row>
-    <row r="24" spans="1:4">
+      <c r="E23" s="3">
+        <v>43619</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24" s="2"/>
       <c r="B24" s="2">
         <v>4</v>
@@ -3116,8 +4180,11 @@
       <c r="D24" s="3">
         <v>43619</v>
       </c>
-    </row>
-    <row r="25" spans="1:4">
+      <c r="E24" s="3">
+        <v>43619</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25" s="2"/>
       <c r="B25" s="2">
         <v>5</v>
@@ -3128,10 +4195,13 @@
       <c r="D25" s="3">
         <v>43621</v>
       </c>
-    </row>
-    <row r="26" spans="1:4">
+      <c r="E25" s="3">
+        <v>43621</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26" s="2" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="B26" s="2">
         <v>0</v>
@@ -3142,8 +4212,11 @@
       <c r="D26" s="3">
         <v>43613</v>
       </c>
-    </row>
-    <row r="27" spans="1:4">
+      <c r="E26" s="3">
+        <v>43613</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27" s="2"/>
       <c r="B27" s="2">
         <v>1</v>
@@ -3154,8 +4227,11 @@
       <c r="D27" s="3">
         <v>43614</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27" s="3">
+        <v>43614</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
       <c r="A28" s="2"/>
       <c r="B28" s="2">
         <v>2</v>
@@ -3166,8 +4242,11 @@
       <c r="D28" s="3">
         <v>43614</v>
       </c>
-    </row>
-    <row r="29" spans="1:4">
+      <c r="E28" s="3">
+        <v>43614</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
       <c r="A29" s="2"/>
       <c r="B29" s="2">
         <v>3</v>
@@ -3178,8 +4257,11 @@
       <c r="D29" s="3">
         <v>43619</v>
       </c>
-    </row>
-    <row r="30" spans="1:4">
+      <c r="E29" s="3">
+        <v>43619</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
       <c r="A30" s="2"/>
       <c r="B30" s="2">
         <v>4</v>
@@ -3190,8 +4272,11 @@
       <c r="D30" s="3">
         <v>43619</v>
       </c>
-    </row>
-    <row r="31" spans="1:4">
+      <c r="E30" s="3">
+        <v>43619</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
       <c r="A31" s="2"/>
       <c r="B31" s="2">
         <v>5</v>
@@ -3202,8 +4287,11 @@
       <c r="D31" s="3">
         <v>43619</v>
       </c>
-    </row>
-    <row r="32" spans="1:4">
+      <c r="E31" s="3">
+        <v>43619</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
       <c r="A32" s="2"/>
       <c r="B32" s="2">
         <v>6</v>
@@ -3214,8 +4302,11 @@
       <c r="D32" s="3">
         <v>43620</v>
       </c>
-    </row>
-    <row r="33" spans="1:4">
+      <c r="E32" s="3">
+        <v>43620</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
       <c r="A33" s="2"/>
       <c r="B33" s="2">
         <v>7</v>
@@ -3226,8 +4317,11 @@
       <c r="D33" s="3">
         <v>43620</v>
       </c>
-    </row>
-    <row r="34" spans="1:4">
+      <c r="E33" s="3">
+        <v>43620</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
       <c r="A34" s="2"/>
       <c r="B34" s="2">
         <v>8</v>
@@ -3238,8 +4332,11 @@
       <c r="D34" s="3">
         <v>43621</v>
       </c>
-    </row>
-    <row r="35" spans="1:4">
+      <c r="E34" s="3">
+        <v>43621</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
       <c r="A35" s="2"/>
       <c r="B35" s="2">
         <v>9</v>
@@ -3250,10 +4347,13 @@
       <c r="D35" s="3">
         <v>43621</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35" s="3">
+        <v>43621</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
       <c r="A36" s="2" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="B36" s="2">
         <v>0</v>
@@ -3264,8 +4364,11 @@
       <c r="D36" s="3">
         <v>43607</v>
       </c>
-    </row>
-    <row r="37" spans="1:4">
+      <c r="E36" s="3">
+        <v>43607</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
       <c r="A37" s="2"/>
       <c r="B37" s="2">
         <v>1</v>
@@ -3276,8 +4379,11 @@
       <c r="D37" s="3">
         <v>43609</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37" s="3">
+        <v>43609</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
       <c r="A38" s="2"/>
       <c r="B38" s="2">
         <v>2</v>
@@ -3288,8 +4394,11 @@
       <c r="D38" s="3">
         <v>43613</v>
       </c>
-    </row>
-    <row r="39" spans="1:4">
+      <c r="E38" s="3">
+        <v>43613</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
       <c r="A39" s="2"/>
       <c r="B39" s="2">
         <v>3</v>
@@ -3300,8 +4409,11 @@
       <c r="D39" s="3">
         <v>43613</v>
       </c>
-    </row>
-    <row r="40" spans="1:4">
+      <c r="E39" s="3">
+        <v>43613</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
       <c r="A40" s="2"/>
       <c r="B40" s="2">
         <v>4</v>
@@ -3312,8 +4424,11 @@
       <c r="D40" s="3">
         <v>43613</v>
       </c>
-    </row>
-    <row r="41" spans="1:4">
+      <c r="E40" s="3">
+        <v>43613</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
       <c r="A41" s="2"/>
       <c r="B41" s="2">
         <v>5</v>
@@ -3324,8 +4439,11 @@
       <c r="D41" s="3">
         <v>43613</v>
       </c>
-    </row>
-    <row r="42" spans="1:4">
+      <c r="E41" s="3">
+        <v>43613</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
       <c r="A42" s="2"/>
       <c r="B42" s="2">
         <v>6</v>
@@ -3336,8 +4454,11 @@
       <c r="D42" s="3">
         <v>43614</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42" s="3">
+        <v>43614</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
       <c r="A43" s="2"/>
       <c r="B43" s="2">
         <v>7</v>
@@ -3348,8 +4469,11 @@
       <c r="D43" s="3">
         <v>43614</v>
       </c>
-    </row>
-    <row r="44" spans="1:4">
+      <c r="E43" s="3">
+        <v>43614</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
       <c r="A44" s="2"/>
       <c r="B44" s="2">
         <v>8</v>
@@ -3360,8 +4484,11 @@
       <c r="D44" s="3">
         <v>43616</v>
       </c>
-    </row>
-    <row r="45" spans="1:4">
+      <c r="E44" s="3">
+        <v>43616</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
       <c r="A45" s="2"/>
       <c r="B45" s="2">
         <v>9</v>
@@ -3372,8 +4499,11 @@
       <c r="D45" s="3">
         <v>43619</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45" s="3">
+        <v>43619</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
       <c r="A46" s="2"/>
       <c r="B46" s="2">
         <v>10</v>
@@ -3384,8 +4514,11 @@
       <c r="D46" s="3">
         <v>43619</v>
       </c>
-    </row>
-    <row r="47" spans="1:4">
+      <c r="E46" s="3">
+        <v>43619</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
       <c r="A47" s="2"/>
       <c r="B47" s="2">
         <v>11</v>
@@ -3396,8 +4529,11 @@
       <c r="D47" s="3">
         <v>43619</v>
       </c>
-    </row>
-    <row r="48" spans="1:4">
+      <c r="E47" s="3">
+        <v>43619</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
       <c r="A48" s="2"/>
       <c r="B48" s="2">
         <v>12</v>
@@ -3408,8 +4544,11 @@
       <c r="D48" s="3">
         <v>43620</v>
       </c>
-    </row>
-    <row r="49" spans="1:4">
+      <c r="E48" s="3">
+        <v>43620</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
       <c r="A49" s="2"/>
       <c r="B49" s="2">
         <v>13</v>
@@ -3420,8 +4559,11 @@
       <c r="D49" s="3">
         <v>43620</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49" s="3">
+        <v>43620</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
       <c r="A50" s="2"/>
       <c r="B50" s="2">
         <v>14</v>
@@ -3430,6 +4572,9 @@
         <v>1540</v>
       </c>
       <c r="D50" s="3">
+        <v>43621</v>
+      </c>
+      <c r="E50" s="3">
         <v>43621</v>
       </c>
     </row>
@@ -3446,7 +4591,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3454,26 +4599,31 @@
   <cols>
     <col min="2" max="2" width="0" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="15.7109375" customWidth="1"/>
-    <col min="8" max="8" width="0" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="15.7109375" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" customWidth="1"/>
+    <col min="9" max="9" width="0" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="15.7109375" customWidth="1"/>
+    <col min="12" max="12" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="2" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="B3" s="2">
         <v>0</v>
@@ -3484,10 +4634,13 @@
       <c r="D3" s="3">
         <v>43613</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" s="3">
+        <v>43613</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="2" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="B4" s="2">
         <v>0</v>
@@ -3498,8 +4651,11 @@
       <c r="D4" s="3">
         <v>43612</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" s="3">
+        <v>43612</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="2"/>
       <c r="B5" s="2">
         <v>1</v>
@@ -3510,10 +4666,13 @@
       <c r="D5" s="3">
         <v>43613</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" s="3">
+        <v>43613</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="2" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="B6" s="2">
         <v>0</v>
@@ -3524,10 +4683,13 @@
       <c r="D6" s="3">
         <v>43613</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" s="3">
+        <v>43613</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="2" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="B7" s="2">
         <v>0</v>
@@ -3538,10 +4700,13 @@
       <c r="D7" s="3">
         <v>43612</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7" s="3">
+        <v>43612</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="B8" s="2">
         <v>0</v>
@@ -3552,8 +4717,11 @@
       <c r="D8" s="3">
         <v>43619</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8" s="3">
+        <v>43619</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" s="2"/>
       <c r="B9" s="2">
         <v>1</v>
@@ -3564,10 +4732,13 @@
       <c r="D9" s="3">
         <v>43621</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E9" s="3">
+        <v>43621</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" s="2" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="B10" s="2">
         <v>0</v>
@@ -3578,8 +4749,11 @@
       <c r="D10" s="3">
         <v>43605</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="E10" s="3">
+        <v>43605</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" s="2"/>
       <c r="B11" s="2">
         <v>1</v>
@@ -3590,8 +4764,11 @@
       <c r="D11" s="3">
         <v>43607</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="E11" s="3">
+        <v>43607</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" s="2"/>
       <c r="B12" s="2">
         <v>2</v>
@@ -3602,8 +4779,11 @@
       <c r="D12" s="3">
         <v>43614</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="E12" s="3">
+        <v>43614</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" s="2"/>
       <c r="B13" s="2">
         <v>3</v>
@@ -3614,8 +4794,11 @@
       <c r="D13" s="3">
         <v>43614</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="E13" s="3">
+        <v>43614</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" s="2"/>
       <c r="B14" s="2">
         <v>4</v>
@@ -3626,8 +4809,11 @@
       <c r="D14" s="3">
         <v>43621</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="E14" s="3">
+        <v>43621</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" s="2"/>
       <c r="B15" s="2">
         <v>5</v>
@@ -3638,10 +4824,13 @@
       <c r="D15" s="3">
         <v>43621</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15" s="3">
+        <v>43621</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" s="2" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="B16" s="2">
         <v>0</v>
@@ -3650,6 +4839,9 @@
         <v>48</v>
       </c>
       <c r="D16" s="3">
+        <v>43613</v>
+      </c>
+      <c r="E16" s="3">
         <v>43613</v>
       </c>
     </row>
